--- a/Hardware/Info/ConnectorsLayout.xlsx
+++ b/Hardware/Info/ConnectorsLayout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Smart104.ua_V3\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Smart104.ua_V3\Hardware\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62DEAD6-BC18-4AAA-A9D0-648475595CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F116A-4541-408C-B0ED-4B45FED3AAB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Ref№</t>
   </si>
@@ -142,13 +142,37 @@
   </si>
   <si>
     <t>Power connectors</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>External sensors connector</t>
+  </si>
+  <si>
+    <t>+3V3 Power</t>
+  </si>
+  <si>
+    <t>+BAT</t>
+  </si>
+  <si>
+    <t>GPIO0</t>
+  </si>
+  <si>
+    <t>GPIO1</t>
+  </si>
+  <si>
+    <t>ADC0</t>
+  </si>
+  <si>
+    <t>ADC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +187,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -204,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -228,44 +245,143 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -276,30 +392,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -308,148 +411,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -458,135 +488,142 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,375 +905,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.53515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.3828125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.15234375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="20.3828125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="9.23046875" style="42"/>
+    <col min="6" max="6" width="31.15234375" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="24">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="24">
+        <v>4</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="24">
+        <v>5</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="24">
+        <v>6</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="26">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="D8" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19">
+    </row>
+    <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="24">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
+    </row>
+    <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="24">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23">
+    </row>
+    <row r="12" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="26">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D12" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C13" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D13" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7">
+    <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D14" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
+    <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="30">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D15" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+    <row r="16" spans="1:6" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="32">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D16" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    <row r="17" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C17" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D17" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19">
+    <row r="18" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D18" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19">
+    <row r="19" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="24">
         <v>3</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D19" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19">
+    <row r="20" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="24">
         <v>4</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D20" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23">
+    <row r="21" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="26">
         <v>5</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D21" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="30" t="s">
+    <row r="22" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C22" s="36">
         <v>1</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D22" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35">
+    <row r="23" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="38">
         <v>2</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="26" t="s">
+    <row r="24" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C25" s="34">
         <v>1</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D25" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19">
+    <row r="26" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D26" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23">
+    <row r="27" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="26">
         <v>3</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D27" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="28" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C28" s="28">
         <v>1</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D28" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7">
+    <row r="29" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="30">
         <v>2</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D29" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7">
+    <row r="30" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="30">
         <v>3</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D30" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11">
+    <row r="31" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="32">
         <v>4</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D31" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="14" t="s">
+    <row r="32" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C32" s="34">
         <v>1</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D32" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23">
+    <row r="33" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="26">
         <v>2</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D33" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="34" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C34" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D34" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11">
+    <row r="35" spans="1:4" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="32">
         <v>2</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D35" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
+  <mergeCells count="20">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
